--- a/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -18454,13 +18454,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>15729</v>
+        <v>15731</v>
       </c>
       <c r="D354" t="n">
         <v>2768</v>
       </c>
       <c r="E354" t="n">
-        <v>24670411</v>
+        <v>24673307</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -20851,13 +20851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>10891</v>
+        <v>10892</v>
       </c>
       <c r="D401" t="n">
         <v>2156</v>
       </c>
       <c r="E401" t="n">
-        <v>42372641</v>
+        <v>42374201</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163530</v>
+        <v>163538</v>
       </c>
       <c r="D434" t="n">
-        <v>25455</v>
+        <v>25456</v>
       </c>
       <c r="E434" t="n">
-        <v>710648051</v>
+        <v>710798728</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94569</v>
+        <v>94581</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>652301307</v>
+        <v>652426158</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50614</v>
+        <v>50615</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>541393574</v>
+        <v>541505413</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30951</v>
+        <v>30952</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>595150856</v>
+        <v>595210644</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53180</v>
+        <v>53181</v>
       </c>
       <c r="D446" t="n">
         <v>8886</v>
       </c>
       <c r="E446" t="n">
-        <v>117845125</v>
+        <v>117855125</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -23860,13 +23860,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3561</v>
+        <v>3568</v>
       </c>
       <c r="D460" t="n">
         <v>601</v>
       </c>
       <c r="E460" t="n">
-        <v>52819566</v>
+        <v>53156858</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
@@ -23911,13 +23911,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D461" t="n">
         <v>205</v>
       </c>
       <c r="E461" t="n">
-        <v>50000716</v>
+        <v>50010716</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
@@ -23962,13 +23962,13 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D462" t="n">
         <v>24</v>
       </c>
       <c r="E462" t="n">
-        <v>13092118</v>
+        <v>13170608</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
@@ -24217,13 +24217,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>13529</v>
+        <v>13530</v>
       </c>
       <c r="D467" t="n">
         <v>2243</v>
       </c>
       <c r="E467" t="n">
-        <v>41344104</v>
+        <v>41352373</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
@@ -24268,13 +24268,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>37472</v>
+        <v>37473</v>
       </c>
       <c r="D468" t="n">
         <v>6657</v>
       </c>
       <c r="E468" t="n">
-        <v>132504093</v>
+        <v>132520784</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -26257,13 +26257,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>3800</v>
+        <v>3801</v>
       </c>
       <c r="D507" t="n">
         <v>699</v>
       </c>
       <c r="E507" t="n">
-        <v>9102747</v>
+        <v>9113119</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -26308,13 +26308,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>11692</v>
+        <v>11693</v>
       </c>
       <c r="D508" t="n">
         <v>2248</v>
       </c>
       <c r="E508" t="n">
-        <v>32953239</v>
+        <v>32955791</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -39364,13 +39364,13 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>31965</v>
+        <v>31966</v>
       </c>
       <c r="D764" t="n">
-        <v>6525</v>
+        <v>6526</v>
       </c>
       <c r="E764" t="n">
-        <v>137944931</v>
+        <v>137954931</v>
       </c>
       <c r="F764" t="inlineStr">
         <is>
@@ -39925,13 +39925,13 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="D775" t="n">
         <v>516</v>
       </c>
       <c r="E775" t="n">
-        <v>20710514</v>
+        <v>20728072</v>
       </c>
       <c r="F775" t="inlineStr">
         <is>
@@ -39976,13 +39976,13 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D776" t="n">
         <v>225</v>
       </c>
       <c r="E776" t="n">
-        <v>19093737</v>
+        <v>19121900</v>
       </c>
       <c r="F776" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9402</v>
+        <v>9403</v>
       </c>
       <c r="D11" t="n">
         <v>1870</v>
       </c>
       <c r="E11" t="n">
-        <v>34865073</v>
+        <v>34867256</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -16669,13 +16669,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D319" t="n">
         <v>58</v>
       </c>
       <c r="E319" t="n">
-        <v>9452174</v>
+        <v>9516888</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -17230,13 +17230,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>20986</v>
+        <v>20987</v>
       </c>
       <c r="D330" t="n">
         <v>4303</v>
       </c>
       <c r="E330" t="n">
-        <v>75015571</v>
+        <v>75017034</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -21412,13 +21412,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="D412" t="n">
         <v>297</v>
       </c>
       <c r="E412" t="n">
-        <v>28448187</v>
+        <v>28463817</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163538</v>
+        <v>163543</v>
       </c>
       <c r="D434" t="n">
         <v>25456</v>
       </c>
       <c r="E434" t="n">
-        <v>710798728</v>
+        <v>710835488</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94581</v>
+        <v>94585</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>652426158</v>
+        <v>652478402</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53181</v>
+        <v>53182</v>
       </c>
       <c r="D446" t="n">
         <v>8886</v>
       </c>
       <c r="E446" t="n">
-        <v>117855125</v>
+        <v>117858650</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -24319,13 +24319,13 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>16592</v>
+        <v>16593</v>
       </c>
       <c r="D469" t="n">
         <v>3049</v>
       </c>
       <c r="E469" t="n">
-        <v>90260741</v>
+        <v>90285122</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D472" t="n">
         <v>187</v>
       </c>
       <c r="E472" t="n">
-        <v>55013027</v>
+        <v>55063170</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -25492,13 +25492,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="D492" t="n">
         <v>391</v>
       </c>
       <c r="E492" t="n">
-        <v>43182976</v>
+        <v>43234591</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
@@ -26053,13 +26053,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D503" t="n">
         <v>71</v>
       </c>
       <c r="E503" t="n">
-        <v>16615357</v>
+        <v>16649846</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -42373,13 +42373,13 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>76800</v>
+        <v>76802</v>
       </c>
       <c r="D823" t="n">
         <v>14068</v>
       </c>
       <c r="E823" t="n">
-        <v>291948487</v>
+        <v>291952626</v>
       </c>
       <c r="F823" t="inlineStr">
         <is>
@@ -43036,13 +43036,13 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="D836" t="n">
         <v>616</v>
       </c>
       <c r="E836" t="n">
-        <v>27340594</v>
+        <v>27347534</v>
       </c>
       <c r="F836" t="inlineStr">
         <is>
